--- a/ProjectISM/dataset/suppliers.xlsx
+++ b/ProjectISM/dataset/suppliers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Hành lá</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>SUP7</t>
   </si>
   <si>
@@ -106,7 +109,13 @@
     <t>SUP8</t>
   </si>
   <si>
-    <t>25</t>
+    <t>Công ty CP DOMDOM</t>
+  </si>
+  <si>
+    <t>8/8/2024</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
   </si>
   <si>
     <t>SUP9</t>
@@ -131,9 +140,6 @@
   </si>
   <si>
     <t>Ngó sen</t>
-  </si>
-  <si>
-    <t>76</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,22 +587,22 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>20</v>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -604,33 +610,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
         <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -638,36 +644,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
